--- a/inst/extdata/seqNdisplayR_sample_sheet_simple.xlsx
+++ b/inst/extdata/seqNdisplayR_sample_sheet_simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{462158DC-D4B9-4948-9EB1-166253D0C521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{011E0F0C-5A7F-8849-86B2-2F9A70DB1498}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{462158DC-D4B9-4948-9EB1-166253D0C521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0193246E-7193-7B45-BFF3-C6CCCE9FB0D3}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,24 @@
     <sheet name="README" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$C$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$C$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="201">
   <si>
     <t>bw_dirs</t>
   </si>
@@ -266,9 +276,6 @@
     <t>100,50</t>
   </si>
   <si>
-    <t>1.5,1.5</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -627,6 +634,12 @@
   </si>
   <si>
     <t>replicate (not used by seqNdisplayR at the moment)</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>group_autoscale</t>
   </si>
 </sst>
 </file>
@@ -1080,16 +1093,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -1098,31 +1111,31 @@
         <v>8</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1134,16 +1147,16 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1155,10 +1168,10 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -1170,10 +1183,10 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -1185,10 +1198,10 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -1200,10 +1213,10 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1215,10 +1228,10 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -1227,16 +1240,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -1248,10 +1261,10 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -1263,10 +1276,10 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1278,10 +1291,10 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
@@ -1293,10 +1306,10 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -1308,10 +1321,10 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1326,13 +1339,13 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1347,7 +1360,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1362,7 +1375,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1377,7 +1390,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1389,13 +1402,13 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1410,7 +1423,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1425,7 +1438,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -1440,10 +1453,10 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1458,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1479,7 +1492,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -1494,7 +1507,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -1509,7 +1522,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -1521,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -1542,7 +1555,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -1557,7 +1570,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -1572,13 +1585,13 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
         <v>135</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D30" t="s">
-        <v>136</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1587,19 +1600,19 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1623,51 +1636,57 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C8C505-D57F-9C4B-B17A-20D6567392D2}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1696,13 +1715,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1736,8 +1758,11 @@
       <c r="K3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1771,10 +1796,13 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -1805,6 +1833,9 @@
       </c>
       <c r="K5" t="b">
         <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1846,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1830,37 +1861,41 @@
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1877,13 +1912,16 @@
       <c r="G2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1899,6 +1937,9 @@
       </c>
       <c r="G3" t="s">
         <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1913,10 +1954,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1928,13 +1969,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1947,7 +1988,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="4" t="b">
         <v>1</v>
@@ -1955,50 +1996,50 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>184</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2006,7 +2047,7 @@
         <v>143</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2014,111 +2055,111 @@
         <v>144</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="B12" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="4">
-        <v>250</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="b">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="B14" s="11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="11" t="b">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="4" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>146</v>
+      </c>
+      <c r="B17" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="4" t="b">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="4" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>65</v>
@@ -2126,7 +2167,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>65</v>
@@ -2134,42 +2175,42 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>61</v>
+      <c r="A28" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>184</v>
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="4" t="b">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2177,39 +2218,39 @@
         <v>148</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B35" s="4" t="b">
         <v>1</v>
@@ -2217,7 +2258,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B36" s="4" t="b">
         <v>1</v>
@@ -2235,16 +2276,16 @@
       <c r="A38" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="4" t="b">
-        <v>1</v>
+      <c r="B38" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>81</v>
+      <c r="B39" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2252,7 +2293,7 @@
         <v>158</v>
       </c>
       <c r="B40" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,33 +2308,33 @@
       <c r="A42" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="4" t="b">
-        <v>0</v>
+      <c r="B42" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="3"/>
+      <c r="B44" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>74</v>
+      <c r="B45" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2301,23 +2342,23 @@
         <v>163</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>67</v>
+      <c r="B47" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="4" t="b">
-        <v>0</v>
+      <c r="B48" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2348,8 +2389,8 @@
       <c r="A52" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>65</v>
+      <c r="B52" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2361,19 +2402,19 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="B55" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2381,7 +2422,7 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2389,7 +2430,7 @@
         <v>173</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -2397,7 +2438,7 @@
         <v>174</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -2405,7 +2446,7 @@
         <v>175</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -2413,7 +2454,7 @@
         <v>176</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2421,39 +2462,39 @@
         <v>177</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>78</v>
+        <v>178</v>
+      </c>
+      <c r="B65" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2461,47 +2502,39 @@
         <v>179</v>
       </c>
       <c r="B66" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="4" t="b">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>181</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>77</v>
+      <c r="B69" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>182</v>
-      </c>
-      <c r="B70" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2558,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2607,7 +2640,7 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">

--- a/inst/extdata/seqNdisplayR_sample_sheet_simple.xlsx
+++ b/inst/extdata/seqNdisplayR_sample_sheet_simple.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{462158DC-D4B9-4948-9EB1-166253D0C521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0193246E-7193-7B45-BFF3-C6CCCE9FB0D3}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{462158DC-D4B9-4948-9EB1-166253D0C521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75A89C0A-6693-2F4A-ADB1-CB61E800E0BA}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="35260" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
     <sheet name="DATASET_OPTIONS" sheetId="8" r:id="rId2"/>
     <sheet name="ANNOTATIONS" sheetId="5" r:id="rId3"/>
     <sheet name="GLOBAL_OPTIONS" sheetId="7" r:id="rId4"/>
-    <sheet name="README" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$C$72</definedName>
@@ -37,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="201">
-  <si>
-    <t>bw_dirs</t>
-  </si>
-  <si>
-    <t>bw_names</t>
-  </si>
-  <si>
-    <t>seqtypes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="184">
   <si>
     <t>strand</t>
   </si>
@@ -57,18 +47,9 @@
     <t>minus</t>
   </si>
   <si>
-    <t>subsample1</t>
-  </si>
-  <si>
-    <t>subsample2</t>
-  </si>
-  <si>
     <t>batch</t>
   </si>
   <si>
-    <t>Limitations / usage of this template:</t>
-  </si>
-  <si>
     <t>3-seq</t>
   </si>
   <si>
@@ -129,111 +110,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>x Sheets:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samples: </t>
-  </si>
-  <si>
-    <t>contains track information</t>
-  </si>
-  <si>
-    <t>either name this sheet Samples or keep as first</t>
-  </si>
-  <si>
-    <t>required columns:</t>
-  </si>
-  <si>
-    <t>optional columns:</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color </t>
-  </si>
-  <si>
-    <t>column needs to be present, only one bw_dir by seqtypes is allowed, can be left empty and included in bw_names</t>
-  </si>
-  <si>
-    <t>column needs to be present, but if leave it empty, will assume all samples are from same batch</t>
-  </si>
-  <si>
-    <t>a identifier of sample grouping, if all samples are independent add sample names here</t>
-  </si>
-  <si>
-    <t>a identifier of sample sub-grouping, if all samples are independent add sample names here</t>
-  </si>
-  <si>
-    <t>a identifier of sample sub-sub-grouping, if all samples are independent add sample names here</t>
-  </si>
-  <si>
-    <t>… (infinity number of subsamples are allowed, different levels are subgroupings are possible for different seqtypes and subsample groups, leave cells empty if not relevant</t>
-  </si>
-  <si>
-    <t>['plus', 'minus' or leave empty] column needs to be present, but if leave it empty, will assume strand plus, if not minus strand bw present, will assume unstranded</t>
-  </si>
-  <si>
-    <t>column needs to be present, but if leave it empty, will cause track to be displayed in black. Hex code or any name representation usable as color in R is possible. Ups: Named colors wont display correctly in the Excel sheet.</t>
-  </si>
-  <si>
-    <t>every row must have a bw_name associated. Multiple rows are allowed per samples, than the bigwigs are assumed replicates from the same sample.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">both_strands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual_strand_direction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">extra_space </t>
-  </si>
-  <si>
-    <t xml:space="preserve">annot_panel_color </t>
-  </si>
-  <si>
-    <t xml:space="preserve">annot_panel_font_size </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bins_per_cm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_width_cm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_height_cm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed_panel_width </t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal_panels_list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal_spacers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">force_scale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">header_font_sizes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">genomic_scale_on_top </t>
-  </si>
-  <si>
-    <t xml:space="preserve">genomic_scale_font_size </t>
-  </si>
-  <si>
-    <t xml:space="preserve">genomic_scale_font_color </t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature_names_font_size </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dummy_plot </t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -345,12 +221,6 @@
     <t>siRRP40_xPAP_in_batch3_minus.bw</t>
   </si>
   <si>
-    <t>#NULL or named list;ie horizontal_panels_list = list(“RNA-seq”=c(F,F), “3-seq”=c(F,T,F,F))</t>
-  </si>
-  <si>
-    <t>#NULL, single number, vector of length 2 or number of panels or a list</t>
-  </si>
-  <si>
     <t>whichSamples</t>
   </si>
   <si>
@@ -369,9 +239,6 @@
     <t>negValsSet0</t>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
     <t>log2transform</t>
   </si>
   <si>
@@ -606,9 +473,6 @@
     <t>0.66</t>
   </si>
   <si>
-    <t>This Excel template aims to facilitate the input of your datasets in the plotting function, it however has some limitations of structure, should your dataset have a complex sturcture not compatible with this import function, please generate the input manually</t>
-  </si>
-  <si>
     <t>annotation_name</t>
   </si>
   <si>
@@ -633,20 +497,104 @@
     <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/annotations/RNAPII_ChIP_peaks.bed</t>
   </si>
   <si>
-    <t>replicate (not used by seqNdisplayR at the moment)</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
     <t>group_autoscale</t>
+  </si>
+  <si>
+    <t>0.7,0.7</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>annot_panel_color</t>
+  </si>
+  <si>
+    <t>annot_panel_font_size</t>
+  </si>
+  <si>
+    <t>bins_per_cm</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>both_strands</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>dummy_plot</t>
+  </si>
+  <si>
+    <t>extra_space</t>
+  </si>
+  <si>
+    <t>feature_names_font_size</t>
+  </si>
+  <si>
+    <t>fixed_panel_width</t>
+  </si>
+  <si>
+    <t>force_scale</t>
+  </si>
+  <si>
+    <t>full_height_cm</t>
+  </si>
+  <si>
+    <t>full_width_cm</t>
+  </si>
+  <si>
+    <t>genomic_scale_font_color</t>
+  </si>
+  <si>
+    <t>genomic_scale_font_size</t>
+  </si>
+  <si>
+    <t>genomic_scale_on_top</t>
+  </si>
+  <si>
+    <t>header_font_sizes</t>
+  </si>
+  <si>
+    <t>horizontal_panels_list</t>
+  </si>
+  <si>
+    <t>horizontal_spacers</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>plotting_segment_order_bottom</t>
+  </si>
+  <si>
+    <t>1,2,3,1,2,3</t>
+  </si>
+  <si>
+    <t>NA,NA</t>
+  </si>
+  <si>
+    <t>1,2,2,2</t>
+  </si>
+  <si>
+    <t>black,black,black</t>
+  </si>
+  <si>
+    <t>intermingled_color</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>reverse_strand_direction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -670,6 +618,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -737,17 +693,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1075,9 +1031,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1093,73 +1047,73 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1168,13 +1122,13 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1183,13 +1137,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1198,13 +1152,13 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1213,13 +1167,13 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1228,31 +1182,31 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1261,13 +1215,13 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1276,13 +1230,13 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1291,13 +1245,13 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1306,13 +1260,13 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1321,37 +1275,37 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1360,13 +1314,13 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1375,13 +1329,13 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1390,31 +1344,31 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1423,13 +1377,13 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1438,13 +1392,13 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1453,37 +1407,37 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1492,13 +1446,13 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1507,13 +1461,13 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1522,31 +1476,31 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1555,13 +1509,13 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1570,13 +1524,13 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1585,37 +1539,37 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1636,206 +1590,235 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C8C505-D57F-9C4B-B17A-20D6567392D2}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="20.83203125" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="1" max="14" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="K1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
+      <c r="G4" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
+      <c r="G5" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1848,104 +1831,97 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="3" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>140</v>
+      <c r="A1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>127</v>
+      <c r="A2" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
+        <v>151</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>138</v>
+      <c r="A3" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
+        <v>152</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/annotations/HeLa_major_isoform_hg38_gc34.bed" xr:uid="{0F224F1A-9438-C245-8D14-C479EFE85529}"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/annotations/RNAPII_ChIP_peaks.bed" xr:uid="{3E4A5A8A-2A65-1E40-9D54-6A26A2C6218A}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0E8D3FEE-72F8-1046-A9AE-1D9A8532B73D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{EB2690FB-ABD6-9A4A-BE8E-A0D4FBFA8EDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1954,10 +1930,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1969,708 +1945,575 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>110</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="13" t="b">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="4" t="b">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="4">
-        <v>250</v>
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4" t="b">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="11" t="b">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4" t="b">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>174</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="4" t="b">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="4" t="b">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
         <v>155</v>
-      </c>
-      <c r="B37" s="4" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="4" t="b">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="4" t="b">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="4" t="b">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="3"/>
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>74</v>
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="4" t="b">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>65</v>
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>65</v>
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>65</v>
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="4" t="b">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" s="4" t="b">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>65</v>
+      <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>72</v>
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>65</v>
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>67</v>
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>79</v>
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>70</v>
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>71</v>
+        <v>133</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>75</v>
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>65</v>
+        <v>140</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>184</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>185</v>
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>78</v>
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="4" t="b">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="4" t="b">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>188</v>
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>77</v>
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="4">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>126</v>
+        <v>176</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="16.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>